--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Project\ITInventory\ITinventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23B130D-A81C-403E-9E67-41039A95A104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02123005-FF4C-4A8B-BB84-61CC873C2897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t># ITinventory</t>
   </si>
@@ -201,13 +201,58 @@
   </si>
   <si>
     <t>3. To check the username and prompt if there is a user found in the database</t>
+  </si>
+  <si>
+    <t>28.4.21</t>
+  </si>
+  <si>
+    <t>2. Init category, date and vendor value on load of component</t>
+  </si>
+  <si>
+    <t>3. Format Date to 'yyyy-MM-dd' for DB insertion</t>
+  </si>
+  <si>
+    <t>4. Change itemPost to get values using item form group method</t>
+  </si>
+  <si>
+    <t>5. Tested and found all req values to be inserted to DB correctly.</t>
+  </si>
+  <si>
+    <t>30.04.21</t>
+  </si>
+  <si>
+    <t>1. Change all fields using ngModel to use Item Form group for Controls - AddItem page</t>
+  </si>
+  <si>
+    <t>1. Change all fields using ngModel to use Item Form group for Controls - editItem page</t>
+  </si>
+  <si>
+    <t>2. Init the page values by using state item obj</t>
+  </si>
+  <si>
+    <t>3. Edit item page having issues updating createdon and updatedon dates.</t>
+  </si>
+  <si>
+    <t>01.05.21</t>
+  </si>
+  <si>
+    <t>2. Change the model , itemgroup and html for createdOn and updatedOn to createDate and updatedDate</t>
+  </si>
+  <si>
+    <t>2.1 this is to standarize with the DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Rename updateDate column to updatedDate in postgresql DB </t>
+  </si>
+  <si>
+    <t>1. Fixed Edit item page. Display correctly and init to today if there is no value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,13 +287,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -280,6 +339,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -882,74 +944,138 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -962,7 +1088,7 @@
   <dimension ref="A2:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9DEF56-6B23-4B27-9F86-37463C6647B2}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Project\ITInventory\ITinventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02123005-FF4C-4A8B-BB84-61CC873C2897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A34F62-6DBF-4C78-8D1C-918A5597310F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t># ITinventory</t>
   </si>
@@ -246,13 +246,31 @@
   </si>
   <si>
     <t>1. Fixed Edit item page. Display correctly and init to today if there is no value</t>
+  </si>
+  <si>
+    <t>## Note ##</t>
+  </si>
+  <si>
+    <t>Set the Datepickers to start in 2010 instead of 1970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Item, Edit Item and Delete Item done </t>
+  </si>
+  <si>
+    <t>04.05.2021</t>
+  </si>
+  <si>
+    <t>1. Created tblvendor table</t>
+  </si>
+  <si>
+    <t>2. Created tblitems_vendor table for many 2 many relationship</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +313,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -322,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -342,6 +381,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1027,54 +1072,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1088,180 +1171,186 @@
   <dimension ref="A2:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="128.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Project\ITInventory\ITinventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Project\Angular\ITInventory\ITinventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A34F62-6DBF-4C78-8D1C-918A5597310F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CF6CA5-E313-449F-81DD-F8A3AD5A2C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t># ITinventory</t>
   </si>
@@ -264,13 +264,31 @@
   </si>
   <si>
     <t>2. Created tblitems_vendor table for many 2 many relationship</t>
+  </si>
+  <si>
+    <t>05.09.2021</t>
+  </si>
+  <si>
+    <t>1. Created login component</t>
+  </si>
+  <si>
+    <t>2. Centered login card at center of page</t>
+  </si>
+  <si>
+    <t>3. Redirect page load to login component page</t>
+  </si>
+  <si>
+    <t>## To Do ##</t>
+  </si>
+  <si>
+    <t>Revised how does button click works and onClick() goto main page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +352,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -361,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -387,6 +412,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1158,6 +1184,46 @@
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
